--- a/data/PM25_LL.xlsx
+++ b/data/PM25_LL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T783"/>
+  <dimension ref="A1:T781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47708,16 +47708,16 @@
         <v>2004</v>
       </c>
       <c r="C713" t="n">
-        <v>13021</v>
+        <v>14064</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>Merlin</t>
+          <t>Sarnia</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Middle Rd., Moe Water Pump Stn.</t>
+          <t>Front St. N./CN Tracks, Centennial Park</t>
         </is>
       </c>
       <c r="F713" t="inlineStr">
@@ -47726,44 +47726,44 @@
         </is>
       </c>
       <c r="G713" t="n">
-        <v>8505</v>
+        <v>8596</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I713" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J713" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K713" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L713" t="n">
+        <v>27</v>
+      </c>
+      <c r="M713" t="n">
+        <v>47</v>
+      </c>
+      <c r="N713" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="O713" t="n">
+        <v>70</v>
+      </c>
+      <c r="P713" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q713" t="n">
         <v>18</v>
-      </c>
-      <c r="M713" t="n">
-        <v>38</v>
-      </c>
-      <c r="N713" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="O713" t="n">
-        <v>66</v>
-      </c>
-      <c r="P713" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q713" t="n">
-        <v>8</v>
       </c>
       <c r="R713" t="inlineStr"/>
       <c r="S713" t="n">
-        <v>0</v>
+        <v>42.9803005</v>
       </c>
       <c r="T713" t="n">
-        <v>0</v>
+        <v>-82.4058754</v>
       </c>
     </row>
     <row r="714">
@@ -47774,16 +47774,16 @@
         <v>2004</v>
       </c>
       <c r="C714" t="n">
-        <v>14064</v>
+        <v>15020</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>Sarnia</t>
+          <t>Grand Bend</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Front St. N./CN Tracks, Centennial Park</t>
+          <t>Point Blake Conservation Area</t>
         </is>
       </c>
       <c r="F714" t="inlineStr">
@@ -47792,44 +47792,44 @@
         </is>
       </c>
       <c r="G714" t="n">
-        <v>8596</v>
+        <v>8369</v>
       </c>
       <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="n">
+        <v>2</v>
+      </c>
+      <c r="J714" t="n">
         <v>4</v>
       </c>
-      <c r="I714" t="n">
-        <v>6</v>
-      </c>
-      <c r="J714" t="n">
+      <c r="K714" t="n">
         <v>8</v>
       </c>
-      <c r="K714" t="n">
-        <v>14</v>
-      </c>
       <c r="L714" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M714" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N714" t="n">
-        <v>12.17</v>
+        <v>7</v>
       </c>
       <c r="O714" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P714" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q714" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="R714" t="inlineStr"/>
       <c r="S714" t="n">
-        <v>42.9803005</v>
+        <v>43.3130397</v>
       </c>
       <c r="T714" t="n">
-        <v>-82.4058754</v>
+        <v>-81.75622419999999</v>
       </c>
     </row>
     <row r="715">
@@ -47840,16 +47840,16 @@
         <v>2004</v>
       </c>
       <c r="C715" t="n">
-        <v>15020</v>
+        <v>15025</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>Grand Bend</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Point Blake Conservation Area</t>
+          <t>900 Highbury Ave. N.</t>
         </is>
       </c>
       <c r="F715" t="inlineStr">
@@ -47858,19 +47858,19 @@
         </is>
       </c>
       <c r="G715" t="n">
-        <v>8369</v>
+        <v>8617</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J715" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K715" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L715" t="n">
         <v>18</v>
@@ -47879,23 +47879,23 @@
         <v>38</v>
       </c>
       <c r="N715" t="n">
-        <v>7</v>
+        <v>7.82</v>
       </c>
       <c r="O715" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P715" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q715" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R715" t="inlineStr"/>
       <c r="S715" t="n">
-        <v>43.3130397</v>
+        <v>43.0057206</v>
       </c>
       <c r="T715" t="n">
-        <v>-81.75622419999999</v>
+        <v>-81.20767409999999</v>
       </c>
     </row>
     <row r="716">
@@ -47906,16 +47906,16 @@
         <v>2004</v>
       </c>
       <c r="C716" t="n">
-        <v>15025</v>
+        <v>16015</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Port Stanley</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>900 Highbury Ave. N.</t>
+          <t>43665 Dexter Line, Elgin Water T. Plt</t>
         </is>
       </c>
       <c r="F716" t="inlineStr">
@@ -47924,7 +47924,7 @@
         </is>
       </c>
       <c r="G716" t="n">
-        <v>8617</v>
+        <v>8619</v>
       </c>
       <c r="H716" t="n">
         <v>1</v>
@@ -47936,32 +47936,32 @@
         <v>5</v>
       </c>
       <c r="K716" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L716" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M716" t="n">
         <v>38</v>
       </c>
       <c r="N716" t="n">
-        <v>7.82</v>
+        <v>7.45</v>
       </c>
       <c r="O716" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P716" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q716" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R716" t="inlineStr"/>
       <c r="S716" t="n">
-        <v>43.0057206</v>
+        <v>42.6737899</v>
       </c>
       <c r="T716" t="n">
-        <v>-81.20767409999999</v>
+        <v>-81.1616973</v>
       </c>
     </row>
     <row r="717">
@@ -47972,16 +47972,16 @@
         <v>2004</v>
       </c>
       <c r="C717" t="n">
-        <v>16015</v>
+        <v>18007</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>Port Stanley</t>
+          <t>Tiverton</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>43665 Dexter Line, Elgin Water T. Plt</t>
+          <t>4th Concession/Bruce Rd. 23</t>
         </is>
       </c>
       <c r="F717" t="inlineStr">
@@ -47990,44 +47990,44 @@
         </is>
       </c>
       <c r="G717" t="n">
-        <v>8619</v>
+        <v>8010</v>
       </c>
       <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="n">
         <v>1</v>
       </c>
-      <c r="I717" t="n">
+      <c r="J717" t="n">
         <v>3</v>
       </c>
-      <c r="J717" t="n">
-        <v>5</v>
-      </c>
       <c r="K717" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L717" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M717" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N717" t="n">
-        <v>7.45</v>
+        <v>5.84</v>
       </c>
       <c r="O717" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P717" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q717" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R717" t="inlineStr"/>
       <c r="S717" t="n">
-        <v>42.6737899</v>
+        <v>44.2525428</v>
       </c>
       <c r="T717" t="n">
-        <v>-81.1616973</v>
+        <v>-81.5842686</v>
       </c>
     </row>
     <row r="718">
@@ -48038,16 +48038,16 @@
         <v>2004</v>
       </c>
       <c r="C718" t="n">
-        <v>18007</v>
+        <v>21005</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>Tiverton</t>
+          <t>Brantford</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>4th Concession/Bruce Rd. 23</t>
+          <t>324 Grand River Ave.</t>
         </is>
       </c>
       <c r="F718" t="inlineStr">
@@ -48056,44 +48056,44 @@
         </is>
       </c>
       <c r="G718" t="n">
-        <v>8010</v>
+        <v>8703</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J718" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K718" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L718" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M718" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N718" t="n">
-        <v>5.84</v>
+        <v>7.52</v>
       </c>
       <c r="O718" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P718" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q718" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R718" t="inlineStr"/>
       <c r="S718" t="n">
-        <v>44.2525428</v>
+        <v>43.1404153</v>
       </c>
       <c r="T718" t="n">
-        <v>-81.5842686</v>
+        <v>-80.2910479</v>
       </c>
     </row>
     <row r="719">
@@ -48104,16 +48104,16 @@
         <v>2004</v>
       </c>
       <c r="C719" t="n">
-        <v>21005</v>
+        <v>26060</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>Brantford</t>
+          <t>Kitchener</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>324 Grand River Ave.</t>
+          <t>West Ave./Homewood Ave.</t>
         </is>
       </c>
       <c r="F719" t="inlineStr">
@@ -48122,7 +48122,7 @@
         </is>
       </c>
       <c r="G719" t="n">
-        <v>8703</v>
+        <v>8654</v>
       </c>
       <c r="H719" t="n">
         <v>1</v>
@@ -48137,29 +48137,29 @@
         <v>9</v>
       </c>
       <c r="L719" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M719" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N719" t="n">
-        <v>7.52</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="O719" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P719" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q719" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R719" t="inlineStr"/>
       <c r="S719" t="n">
-        <v>43.1404153</v>
+        <v>43.442927</v>
       </c>
       <c r="T719" t="n">
-        <v>-80.2910479</v>
+        <v>-80.5038914</v>
       </c>
     </row>
     <row r="720">
@@ -48170,16 +48170,16 @@
         <v>2004</v>
       </c>
       <c r="C720" t="n">
-        <v>26060</v>
+        <v>27067</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>Kitchener</t>
+          <t>St. Catharines</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>West Ave./Homewood Ave.</t>
+          <t>Argyle Cres., Pump Stn.</t>
         </is>
       </c>
       <c r="F720" t="inlineStr">
@@ -48188,13 +48188,13 @@
         </is>
       </c>
       <c r="G720" t="n">
-        <v>8654</v>
+        <v>8762</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J720" t="n">
         <v>5</v>
@@ -48203,29 +48203,29 @@
         <v>9</v>
       </c>
       <c r="L720" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M720" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N720" t="n">
-        <v>8.050000000000001</v>
+        <v>7.33</v>
       </c>
       <c r="O720" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="P720" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q720" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R720" t="inlineStr"/>
       <c r="S720" t="n">
-        <v>43.442927</v>
+        <v>43.1601181</v>
       </c>
       <c r="T720" t="n">
-        <v>-80.5038914</v>
+        <v>-79.234117</v>
       </c>
     </row>
     <row r="721">
@@ -48236,16 +48236,16 @@
         <v>2004</v>
       </c>
       <c r="C721" t="n">
-        <v>27067</v>
+        <v>28028</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>St. Catharines</t>
+          <t>Guelph</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Argyle Cres., Pump Stn.</t>
+          <t>Exhibition St./Clark St. W.</t>
         </is>
       </c>
       <c r="F721" t="inlineStr">
@@ -48254,13 +48254,13 @@
         </is>
       </c>
       <c r="G721" t="n">
-        <v>8762</v>
+        <v>8623</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J721" t="n">
         <v>5</v>
@@ -48269,29 +48269,29 @@
         <v>9</v>
       </c>
       <c r="L721" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M721" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N721" t="n">
-        <v>7.33</v>
+        <v>7.78</v>
       </c>
       <c r="O721" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P721" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q721" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R721" t="inlineStr"/>
       <c r="S721" t="n">
-        <v>43.1601181</v>
+        <v>43.5520494</v>
       </c>
       <c r="T721" t="n">
-        <v>-79.234117</v>
+        <v>-80.26424879999999</v>
       </c>
     </row>
     <row r="722">
@@ -48302,16 +48302,16 @@
         <v>2004</v>
       </c>
       <c r="C722" t="n">
-        <v>28028</v>
+        <v>29000</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>Guelph</t>
+          <t>Hamilton Downtown</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>Exhibition St./Clark St. W.</t>
+          <t>Elgin St./Kelly St.</t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
@@ -48320,7 +48320,7 @@
         </is>
       </c>
       <c r="G722" t="n">
-        <v>8623</v>
+        <v>8729</v>
       </c>
       <c r="H722" t="n">
         <v>1</v>
@@ -48329,35 +48329,35 @@
         <v>3</v>
       </c>
       <c r="J722" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K722" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L722" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M722" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N722" t="n">
-        <v>7.78</v>
+        <v>8.85</v>
       </c>
       <c r="O722" t="n">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="P722" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q722" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R722" t="inlineStr"/>
       <c r="S722" t="n">
-        <v>43.5520494</v>
+        <v>43.3385085</v>
       </c>
       <c r="T722" t="n">
-        <v>-80.26424879999999</v>
+        <v>-79.8991206</v>
       </c>
     </row>
     <row r="723">
@@ -48368,16 +48368,16 @@
         <v>2004</v>
       </c>
       <c r="C723" t="n">
-        <v>29000</v>
+        <v>29114</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>Hamilton Downtown</t>
+          <t>Hamilton Mountain</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>Elgin St./Kelly St.</t>
+          <t>Vickers Rd./E. 18th St.</t>
         </is>
       </c>
       <c r="F723" t="inlineStr">
@@ -48386,44 +48386,44 @@
         </is>
       </c>
       <c r="G723" t="n">
-        <v>8729</v>
+        <v>8643</v>
       </c>
       <c r="H723" t="n">
         <v>1</v>
       </c>
       <c r="I723" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J723" t="n">
         <v>6</v>
       </c>
       <c r="K723" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L723" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M723" t="n">
         <v>43</v>
       </c>
       <c r="N723" t="n">
-        <v>8.85</v>
+        <v>9.27</v>
       </c>
       <c r="O723" t="n">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="P723" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q723" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R723" t="inlineStr"/>
       <c r="S723" t="n">
-        <v>43.3385085</v>
+        <v>43.2296193</v>
       </c>
       <c r="T723" t="n">
-        <v>-79.8991206</v>
+        <v>-79.8619994</v>
       </c>
     </row>
     <row r="724">
@@ -48434,16 +48434,16 @@
         <v>2004</v>
       </c>
       <c r="C724" t="n">
-        <v>29114</v>
+        <v>29118</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>Hamilton Mountain</t>
+          <t>Hamilton West</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>Vickers Rd./E. 18th St.</t>
+          <t>Main St. W./Hwy 403</t>
         </is>
       </c>
       <c r="F724" t="inlineStr">
@@ -48452,44 +48452,44 @@
         </is>
       </c>
       <c r="G724" t="n">
-        <v>8643</v>
+        <v>8707</v>
       </c>
       <c r="H724" t="n">
         <v>1</v>
       </c>
       <c r="I724" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J724" t="n">
         <v>6</v>
       </c>
       <c r="K724" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L724" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M724" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N724" t="n">
-        <v>9.27</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="O724" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="P724" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q724" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R724" t="inlineStr"/>
       <c r="S724" t="n">
-        <v>43.2296193</v>
+        <v>43.2590473</v>
       </c>
       <c r="T724" t="n">
-        <v>-79.8619994</v>
+        <v>-79.8863308</v>
       </c>
     </row>
     <row r="725">
@@ -48500,16 +48500,16 @@
         <v>2004</v>
       </c>
       <c r="C725" t="n">
-        <v>29118</v>
+        <v>31103</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>Hamilton West</t>
+          <t>Toronto Downtown</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>Main St. W./Hwy 403</t>
+          <t>Bay St./Wellesley St. W.</t>
         </is>
       </c>
       <c r="F725" t="inlineStr">
@@ -48518,44 +48518,44 @@
         </is>
       </c>
       <c r="G725" t="n">
-        <v>8707</v>
+        <v>8752</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J725" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K725" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L725" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M725" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N725" t="n">
-        <v>8.380000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="O725" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="P725" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q725" t="n">
         <v>8</v>
       </c>
       <c r="R725" t="inlineStr"/>
       <c r="S725" t="n">
-        <v>43.2590473</v>
+        <v>43.6643907</v>
       </c>
       <c r="T725" t="n">
-        <v>-79.8863308</v>
+        <v>-79.3871406</v>
       </c>
     </row>
     <row r="726">
@@ -48566,16 +48566,16 @@
         <v>2004</v>
       </c>
       <c r="C726" t="n">
-        <v>31103</v>
+        <v>33003</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>Toronto Downtown</t>
+          <t>Toronto East</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>Bay St./Wellesley St. W.</t>
+          <t>Kennedy Rd./Lawrence Ave. E.</t>
         </is>
       </c>
       <c r="F726" t="inlineStr">
@@ -48584,31 +48584,31 @@
         </is>
       </c>
       <c r="G726" t="n">
-        <v>8752</v>
+        <v>8702</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J726" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K726" t="n">
         <v>8</v>
       </c>
       <c r="L726" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M726" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N726" t="n">
-        <v>7.07</v>
+        <v>7.41</v>
       </c>
       <c r="O726" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P726" t="n">
         <v>37</v>
@@ -48618,10 +48618,10 @@
       </c>
       <c r="R726" t="inlineStr"/>
       <c r="S726" t="n">
-        <v>43.6643907</v>
+        <v>43.7496122</v>
       </c>
       <c r="T726" t="n">
-        <v>-79.3871406</v>
+        <v>-79.2748941</v>
       </c>
     </row>
     <row r="727">
@@ -48632,16 +48632,16 @@
         <v>2004</v>
       </c>
       <c r="C727" t="n">
-        <v>33003</v>
+        <v>34020</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>Toronto East</t>
+          <t>Toronto North</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>Kennedy Rd./Lawrence Ave. E.</t>
+          <t>Hendon Ave./Yonge St.</t>
         </is>
       </c>
       <c r="F727" t="inlineStr">
@@ -48650,44 +48650,44 @@
         </is>
       </c>
       <c r="G727" t="n">
-        <v>8702</v>
+        <v>8695</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J727" t="n">
         <v>5</v>
       </c>
       <c r="K727" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L727" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M727" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N727" t="n">
-        <v>7.41</v>
+        <v>7.7</v>
       </c>
       <c r="O727" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="P727" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q727" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R727" t="inlineStr"/>
       <c r="S727" t="n">
-        <v>43.7496122</v>
+        <v>43.7816303</v>
       </c>
       <c r="T727" t="n">
-        <v>-79.2748941</v>
+        <v>-79.4161189</v>
       </c>
     </row>
     <row r="728">
@@ -48698,16 +48698,16 @@
         <v>2004</v>
       </c>
       <c r="C728" t="n">
-        <v>34020</v>
+        <v>35003</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>Toronto North</t>
+          <t>Etobicoke West</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>Hendon Ave./Yonge St.</t>
+          <t>Elmcrest Rd., Centennial Park</t>
         </is>
       </c>
       <c r="F728" t="inlineStr">
@@ -48716,13 +48716,13 @@
         </is>
       </c>
       <c r="G728" t="n">
-        <v>8695</v>
+        <v>8619</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J728" t="n">
         <v>5</v>
@@ -48731,29 +48731,29 @@
         <v>9</v>
       </c>
       <c r="L728" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M728" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N728" t="n">
-        <v>7.7</v>
+        <v>7.97</v>
       </c>
       <c r="O728" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P728" t="n">
         <v>43</v>
       </c>
       <c r="Q728" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R728" t="inlineStr"/>
       <c r="S728" t="n">
-        <v>43.7816303</v>
+        <v>43.6461755</v>
       </c>
       <c r="T728" t="n">
-        <v>-79.4161189</v>
+        <v>-79.5859043</v>
       </c>
     </row>
     <row r="729">
@@ -48764,16 +48764,16 @@
         <v>2004</v>
       </c>
       <c r="C729" t="n">
-        <v>35003</v>
+        <v>35125</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>Etobicoke West</t>
+          <t>Toronto West</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>Elmcrest Rd., Centennial Park</t>
+          <t>125 Resources Rd.</t>
         </is>
       </c>
       <c r="F729" t="inlineStr">
@@ -48782,44 +48782,44 @@
         </is>
       </c>
       <c r="G729" t="n">
-        <v>8619</v>
+        <v>8329</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I729" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J729" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K729" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L729" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M729" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N729" t="n">
-        <v>7.97</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="O729" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P729" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q729" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R729" t="inlineStr"/>
       <c r="S729" t="n">
-        <v>43.6461755</v>
+        <v>43.7106127</v>
       </c>
       <c r="T729" t="n">
-        <v>-79.5859043</v>
+        <v>-79.54164779999999</v>
       </c>
     </row>
     <row r="730">
@@ -48830,16 +48830,16 @@
         <v>2004</v>
       </c>
       <c r="C730" t="n">
-        <v>35125</v>
+        <v>44008</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>Toronto West</t>
+          <t>Burlington</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>125 Resources Rd.</t>
+          <t>North Shore Blvd. E./Lakeshore Rd.</t>
         </is>
       </c>
       <c r="F730" t="inlineStr">
@@ -48848,44 +48848,44 @@
         </is>
       </c>
       <c r="G730" t="n">
-        <v>8329</v>
+        <v>8727</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
+        <v>3</v>
+      </c>
+      <c r="J730" t="n">
         <v>5</v>
       </c>
-      <c r="J730" t="n">
-        <v>7</v>
-      </c>
       <c r="K730" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L730" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M730" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N730" t="n">
-        <v>9.789999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="O730" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P730" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q730" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R730" t="inlineStr"/>
       <c r="S730" t="n">
-        <v>43.7106127</v>
+        <v>43.3192651</v>
       </c>
       <c r="T730" t="n">
-        <v>-79.54164779999999</v>
+        <v>-79.801839</v>
       </c>
     </row>
     <row r="731">
@@ -48896,16 +48896,16 @@
         <v>2004</v>
       </c>
       <c r="C731" t="n">
-        <v>44008</v>
+        <v>44017</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>Burlington</t>
+          <t>Oakville</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>North Shore Blvd. E./Lakeshore Rd.</t>
+          <t>Eighth Line/Glenashton Dr., Halton Res.</t>
         </is>
       </c>
       <c r="F731" t="inlineStr">
@@ -48914,7 +48914,7 @@
         </is>
       </c>
       <c r="G731" t="n">
-        <v>8727</v>
+        <v>8758</v>
       </c>
       <c r="H731" t="n">
         <v>1</v>
@@ -48932,26 +48932,26 @@
         <v>18</v>
       </c>
       <c r="M731" t="n">
+        <v>42</v>
+      </c>
+      <c r="N731" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="O731" t="n">
+        <v>69</v>
+      </c>
+      <c r="P731" t="n">
         <v>41</v>
       </c>
-      <c r="N731" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="O731" t="n">
-        <v>59</v>
-      </c>
-      <c r="P731" t="n">
-        <v>45</v>
-      </c>
       <c r="Q731" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R731" t="inlineStr"/>
       <c r="S731" t="n">
-        <v>43.3192651</v>
+        <v>43.4855335</v>
       </c>
       <c r="T731" t="n">
-        <v>-79.801839</v>
+        <v>-79.7022308</v>
       </c>
     </row>
     <row r="732">
@@ -48962,16 +48962,16 @@
         <v>2004</v>
       </c>
       <c r="C732" t="n">
-        <v>44017</v>
+        <v>45025</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>Oakville</t>
+          <t>Oshawa</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>Eighth Line/Glenashton Dr., Halton Res.</t>
+          <t>Ritson Rd. Public School</t>
         </is>
       </c>
       <c r="F732" t="inlineStr">
@@ -48980,7 +48980,7 @@
         </is>
       </c>
       <c r="G732" t="n">
-        <v>8758</v>
+        <v>8589</v>
       </c>
       <c r="H732" t="n">
         <v>1</v>
@@ -48998,26 +48998,26 @@
         <v>18</v>
       </c>
       <c r="M732" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N732" t="n">
-        <v>8.130000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="O732" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P732" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q732" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R732" t="inlineStr"/>
       <c r="S732" t="n">
-        <v>43.4855335</v>
+        <v>43.969336</v>
       </c>
       <c r="T732" t="n">
-        <v>-79.7022308</v>
+        <v>-78.8840108</v>
       </c>
     </row>
     <row r="733">
@@ -49028,16 +49028,16 @@
         <v>2004</v>
       </c>
       <c r="C733" t="n">
-        <v>45025</v>
+        <v>46089</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>Oshawa</t>
+          <t>Brampton</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>Ritson Rd. Public School</t>
+          <t>525 Main St. N., Peel Manor</t>
         </is>
       </c>
       <c r="F733" t="inlineStr">
@@ -49046,7 +49046,7 @@
         </is>
       </c>
       <c r="G733" t="n">
-        <v>8589</v>
+        <v>8717</v>
       </c>
       <c r="H733" t="n">
         <v>1</v>
@@ -49067,23 +49067,23 @@
         <v>41</v>
       </c>
       <c r="N733" t="n">
-        <v>7.93</v>
+        <v>7.68</v>
       </c>
       <c r="O733" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P733" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q733" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R733" t="inlineStr"/>
       <c r="S733" t="n">
-        <v>43.969336</v>
+        <v>43.6999865</v>
       </c>
       <c r="T733" t="n">
-        <v>-78.8840108</v>
+        <v>-79.78142629999999</v>
       </c>
     </row>
     <row r="734">
@@ -49094,16 +49094,16 @@
         <v>2004</v>
       </c>
       <c r="C734" t="n">
-        <v>46089</v>
+        <v>46109</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>Brampton</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t>525 Main St. N., Peel Manor</t>
+          <t>Frank McKechnie Comm. Centre</t>
         </is>
       </c>
       <c r="F734" t="inlineStr">
@@ -49112,7 +49112,7 @@
         </is>
       </c>
       <c r="G734" t="n">
-        <v>8717</v>
+        <v>5636</v>
       </c>
       <c r="H734" t="n">
         <v>1</v>
@@ -49121,35 +49121,35 @@
         <v>3</v>
       </c>
       <c r="J734" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K734" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L734" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M734" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N734" t="n">
-        <v>7.68</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="O734" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P734" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q734" t="n">
         <v>10</v>
       </c>
       <c r="R734" t="inlineStr"/>
       <c r="S734" t="n">
-        <v>43.6999865</v>
+        <v>43.6163705</v>
       </c>
       <c r="T734" t="n">
-        <v>-79.78142629999999</v>
+        <v>-79.65304860000001</v>
       </c>
     </row>
     <row r="735">
@@ -49160,16 +49160,16 @@
         <v>2004</v>
       </c>
       <c r="C735" t="n">
-        <v>46109</v>
+        <v>47045</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>Barrie</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>Frank McKechnie Comm. Centre</t>
+          <t>83 Perry St.</t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
@@ -49178,44 +49178,44 @@
         </is>
       </c>
       <c r="G735" t="n">
-        <v>5636</v>
+        <v>8753</v>
       </c>
       <c r="H735" t="n">
         <v>1</v>
       </c>
       <c r="I735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J735" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K735" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L735" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M735" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N735" t="n">
-        <v>9.050000000000001</v>
+        <v>6.91</v>
       </c>
       <c r="O735" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="P735" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q735" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R735" t="inlineStr"/>
       <c r="S735" t="n">
-        <v>43.6163705</v>
+        <v>44.3825072</v>
       </c>
       <c r="T735" t="n">
-        <v>-79.65304860000001</v>
+        <v>-79.7019469</v>
       </c>
     </row>
     <row r="736">
@@ -49226,16 +49226,16 @@
         <v>2004</v>
       </c>
       <c r="C736" t="n">
-        <v>47045</v>
+        <v>48006</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>Barrie</t>
+          <t>Newmarket</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>83 Perry St.</t>
+          <t>Eagle St. W./McCaffrey Rd.</t>
         </is>
       </c>
       <c r="F736" t="inlineStr">
@@ -49244,10 +49244,10 @@
         </is>
       </c>
       <c r="G736" t="n">
-        <v>8753</v>
+        <v>8767</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>2</v>
@@ -49259,29 +49259,29 @@
         <v>7</v>
       </c>
       <c r="L736" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M736" t="n">
         <v>40</v>
       </c>
       <c r="N736" t="n">
-        <v>6.91</v>
+        <v>6.36</v>
       </c>
       <c r="O736" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P736" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q736" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R736" t="inlineStr"/>
       <c r="S736" t="n">
-        <v>44.3825072</v>
+        <v>44.0447883</v>
       </c>
       <c r="T736" t="n">
-        <v>-79.7019469</v>
+        <v>-79.48246139999999</v>
       </c>
     </row>
     <row r="737">
@@ -49292,16 +49292,16 @@
         <v>2004</v>
       </c>
       <c r="C737" t="n">
-        <v>48006</v>
+        <v>49005</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>Newmarket</t>
+          <t>Parry Sound</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>Eagle St. W./McCaffrey Rd.</t>
+          <t>7 Bay St.</t>
         </is>
       </c>
       <c r="F737" t="inlineStr">
@@ -49310,44 +49310,44 @@
         </is>
       </c>
       <c r="G737" t="n">
-        <v>8767</v>
+        <v>8773</v>
       </c>
       <c r="H737" t="n">
         <v>0</v>
       </c>
       <c r="I737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J737" t="n">
+        <v>3</v>
+      </c>
+      <c r="K737" t="n">
+        <v>5</v>
+      </c>
+      <c r="L737" t="n">
+        <v>14</v>
+      </c>
+      <c r="M737" t="n">
+        <v>32</v>
+      </c>
+      <c r="N737" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="O737" t="n">
+        <v>45</v>
+      </c>
+      <c r="P737" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q737" t="n">
         <v>4</v>
-      </c>
-      <c r="K737" t="n">
-        <v>7</v>
-      </c>
-      <c r="L737" t="n">
-        <v>16</v>
-      </c>
-      <c r="M737" t="n">
-        <v>40</v>
-      </c>
-      <c r="N737" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="O737" t="n">
-        <v>59</v>
-      </c>
-      <c r="P737" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q737" t="n">
-        <v>11</v>
       </c>
       <c r="R737" t="inlineStr"/>
       <c r="S737" t="n">
-        <v>44.0447883</v>
+        <v>45.3385271</v>
       </c>
       <c r="T737" t="n">
-        <v>-79.48246139999999</v>
+        <v>-80.0377439</v>
       </c>
     </row>
     <row r="738">
@@ -49358,16 +49358,16 @@
         <v>2004</v>
       </c>
       <c r="C738" t="n">
-        <v>49005</v>
+        <v>49010</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>Parry Sound</t>
+          <t>Dorset</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>7 Bay St.</t>
+          <t>1026 Bellwood Acres Rd.</t>
         </is>
       </c>
       <c r="F738" t="inlineStr">
@@ -49376,7 +49376,7 @@
         </is>
       </c>
       <c r="G738" t="n">
-        <v>8773</v>
+        <v>8492</v>
       </c>
       <c r="H738" t="n">
         <v>0</v>
@@ -49385,35 +49385,35 @@
         <v>1</v>
       </c>
       <c r="J738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K738" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L738" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M738" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N738" t="n">
-        <v>5.25</v>
+        <v>4.65</v>
       </c>
       <c r="O738" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P738" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q738" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R738" t="inlineStr"/>
       <c r="S738" t="n">
-        <v>45.3385271</v>
+        <v>45.22504</v>
       </c>
       <c r="T738" t="n">
-        <v>-80.0377439</v>
+        <v>-78.9302</v>
       </c>
     </row>
     <row r="739">
@@ -49424,16 +49424,16 @@
         <v>2004</v>
       </c>
       <c r="C739" t="n">
-        <v>49010</v>
+        <v>51001</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>Dorset</t>
+          <t>Ottawa Downtown</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>1026 Bellwood Acres Rd.</t>
+          <t>Rideau St./Wurtemburg St.</t>
         </is>
       </c>
       <c r="F739" t="inlineStr">
@@ -49442,44 +49442,44 @@
         </is>
       </c>
       <c r="G739" t="n">
-        <v>8492</v>
+        <v>8110</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I739" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J739" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K739" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L739" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M739" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N739" t="n">
-        <v>4.65</v>
+        <v>6.51</v>
       </c>
       <c r="O739" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P739" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q739" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R739" t="inlineStr"/>
       <c r="S739" t="n">
-        <v>45.22504</v>
+        <v>45.4332793</v>
       </c>
       <c r="T739" t="n">
-        <v>-78.9302</v>
+        <v>-75.67489279999999</v>
       </c>
     </row>
     <row r="740">
@@ -49490,16 +49490,16 @@
         <v>2004</v>
       </c>
       <c r="C740" t="n">
-        <v>51001</v>
+        <v>52020</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>Ottawa Downtown</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>Rideau St./Wurtemburg St.</t>
+          <t>133 Dalton St.</t>
         </is>
       </c>
       <c r="F740" t="inlineStr">
@@ -49508,44 +49508,44 @@
         </is>
       </c>
       <c r="G740" t="n">
-        <v>8110</v>
+        <v>8712</v>
       </c>
       <c r="H740" t="n">
         <v>1</v>
       </c>
       <c r="I740" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J740" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K740" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L740" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M740" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N740" t="n">
-        <v>6.51</v>
+        <v>7.57</v>
       </c>
       <c r="O740" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P740" t="n">
         <v>42</v>
       </c>
       <c r="Q740" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R740" t="inlineStr"/>
       <c r="S740" t="n">
-        <v>45.4332793</v>
+        <v>44.2670624</v>
       </c>
       <c r="T740" t="n">
-        <v>-75.67489279999999</v>
+        <v>-76.50453229999999</v>
       </c>
     </row>
     <row r="741">
@@ -49556,16 +49556,16 @@
         <v>2004</v>
       </c>
       <c r="C741" t="n">
-        <v>52020</v>
+        <v>54012</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>Belleville</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t>133 Dalton St.</t>
+          <t>2 Sidney St., Water Treatment Plant</t>
         </is>
       </c>
       <c r="F741" t="inlineStr">
@@ -49574,44 +49574,44 @@
         </is>
       </c>
       <c r="G741" t="n">
-        <v>8712</v>
+        <v>8739</v>
       </c>
       <c r="H741" t="n">
         <v>1</v>
       </c>
       <c r="I741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J741" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K741" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L741" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M741" t="n">
         <v>37</v>
       </c>
       <c r="N741" t="n">
-        <v>7.57</v>
+        <v>6.35</v>
       </c>
       <c r="O741" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P741" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q741" t="n">
         <v>4</v>
       </c>
       <c r="R741" t="inlineStr"/>
       <c r="S741" t="n">
-        <v>44.2670624</v>
+        <v>44.1627589</v>
       </c>
       <c r="T741" t="n">
-        <v>-76.50453229999999</v>
+        <v>-77.38323149999999</v>
       </c>
     </row>
     <row r="742">
@@ -49622,16 +49622,16 @@
         <v>2004</v>
       </c>
       <c r="C742" t="n">
-        <v>54012</v>
+        <v>56051</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Belleville</t>
+          <t>Cornwall</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>2 Sidney St., Water Treatment Plant</t>
+          <t>Bedford St./3rd St. W.</t>
         </is>
       </c>
       <c r="F742" t="inlineStr">
@@ -49640,44 +49640,44 @@
         </is>
       </c>
       <c r="G742" t="n">
-        <v>8739</v>
+        <v>8727</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="n">
         <v>2</v>
       </c>
       <c r="J742" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K742" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L742" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M742" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N742" t="n">
-        <v>6.35</v>
+        <v>6.82</v>
       </c>
       <c r="O742" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P742" t="n">
         <v>37</v>
       </c>
       <c r="Q742" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R742" t="inlineStr"/>
       <c r="S742" t="n">
-        <v>44.1627589</v>
+        <v>45.0179513</v>
       </c>
       <c r="T742" t="n">
-        <v>-77.38323149999999</v>
+        <v>-74.7357872</v>
       </c>
     </row>
     <row r="743">
@@ -49688,16 +49688,16 @@
         <v>2004</v>
       </c>
       <c r="C743" t="n">
-        <v>56051</v>
+        <v>59006</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>Cornwall</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>Bedford St./3rd St. W.</t>
+          <t>10 Hospital Dr.</t>
         </is>
       </c>
       <c r="F743" t="inlineStr">
@@ -49706,7 +49706,7 @@
         </is>
       </c>
       <c r="G743" t="n">
-        <v>8727</v>
+        <v>8695</v>
       </c>
       <c r="H743" t="n">
         <v>0</v>
@@ -49715,35 +49715,35 @@
         <v>2</v>
       </c>
       <c r="J743" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K743" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L743" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M743" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N743" t="n">
-        <v>6.82</v>
+        <v>5.88</v>
       </c>
       <c r="O743" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P743" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q743" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R743" t="inlineStr"/>
       <c r="S743" t="n">
-        <v>45.0179513</v>
+        <v>44.3016516</v>
       </c>
       <c r="T743" t="n">
-        <v>-74.7357872</v>
+        <v>-78.3468432</v>
       </c>
     </row>
     <row r="744">
@@ -49754,16 +49754,16 @@
         <v>2004</v>
       </c>
       <c r="C744" t="n">
-        <v>59006</v>
+        <v>63203</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Thunder Bay</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>10 Hospital Dr.</t>
+          <t>421 James St. S.</t>
         </is>
       </c>
       <c r="F744" t="inlineStr">
@@ -49772,44 +49772,44 @@
         </is>
       </c>
       <c r="G744" t="n">
-        <v>8695</v>
+        <v>8097</v>
       </c>
       <c r="H744" t="n">
         <v>0</v>
       </c>
       <c r="I744" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J744" t="n">
         <v>3</v>
       </c>
       <c r="K744" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L744" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M744" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N744" t="n">
-        <v>5.88</v>
+        <v>4.24</v>
       </c>
       <c r="O744" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P744" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q744" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R744" t="inlineStr"/>
       <c r="S744" t="n">
-        <v>44.3016516</v>
+        <v>48.3794489</v>
       </c>
       <c r="T744" t="n">
-        <v>-78.3468432</v>
+        <v>-89.2901586</v>
       </c>
     </row>
     <row r="745">
@@ -49820,16 +49820,16 @@
         <v>2004</v>
       </c>
       <c r="C745" t="n">
-        <v>63203</v>
+        <v>71078</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>Thunder Bay</t>
+          <t>Sault Ste. Marie</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>421 James St. S.</t>
+          <t>Sault College</t>
         </is>
       </c>
       <c r="F745" t="inlineStr">
@@ -49838,7 +49838,7 @@
         </is>
       </c>
       <c r="G745" t="n">
-        <v>8097</v>
+        <v>8719</v>
       </c>
       <c r="H745" t="n">
         <v>0</v>
@@ -49847,35 +49847,35 @@
         <v>1</v>
       </c>
       <c r="J745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K745" t="n">
         <v>5</v>
       </c>
       <c r="L745" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M745" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N745" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="O745" t="n">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="P745" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R745" t="inlineStr"/>
       <c r="S745" t="n">
-        <v>48.3794489</v>
+        <v>46.5333304</v>
       </c>
       <c r="T745" t="n">
-        <v>-89.2901586</v>
+        <v>-84.3129603</v>
       </c>
     </row>
     <row r="746">
@@ -49886,16 +49886,16 @@
         <v>2004</v>
       </c>
       <c r="C746" t="n">
-        <v>71078</v>
+        <v>75010</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>Sault Ste. Marie</t>
+          <t>North Bay</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Sault College</t>
+          <t>Chippewa St. W., Dept. National Defence</t>
         </is>
       </c>
       <c r="F746" t="inlineStr">
@@ -49904,7 +49904,7 @@
         </is>
       </c>
       <c r="G746" t="n">
-        <v>8719</v>
+        <v>8653</v>
       </c>
       <c r="H746" t="n">
         <v>0</v>
@@ -49925,23 +49925,23 @@
         <v>29</v>
       </c>
       <c r="N746" t="n">
-        <v>4.5</v>
+        <v>4.47</v>
       </c>
       <c r="O746" t="n">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="P746" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q746" t="n">
         <v>1</v>
       </c>
       <c r="R746" t="inlineStr"/>
       <c r="S746" t="n">
-        <v>46.5333304</v>
+        <v>46.3205213</v>
       </c>
       <c r="T746" t="n">
-        <v>-84.3129603</v>
+        <v>-79.44973349999999</v>
       </c>
     </row>
     <row r="747">
@@ -49952,16 +49952,16 @@
         <v>2004</v>
       </c>
       <c r="C747" t="n">
-        <v>75010</v>
+        <v>77219</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>North Bay</t>
+          <t>Sudbury</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>Chippewa St. W., Dept. National Defence</t>
+          <t>1222 Ramsey Lake Rd.</t>
         </is>
       </c>
       <c r="F747" t="inlineStr">
@@ -49970,7 +49970,7 @@
         </is>
       </c>
       <c r="G747" t="n">
-        <v>8653</v>
+        <v>4455</v>
       </c>
       <c r="H747" t="n">
         <v>0</v>
@@ -49982,32 +49982,32 @@
         <v>2</v>
       </c>
       <c r="K747" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L747" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M747" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N747" t="n">
-        <v>4.47</v>
+        <v>4.28</v>
       </c>
       <c r="O747" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P747" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R747" t="inlineStr"/>
       <c r="S747" t="n">
-        <v>46.3205213</v>
+        <v>46.47552</v>
       </c>
       <c r="T747" t="n">
-        <v>-79.44973349999999</v>
+        <v>-80.96369</v>
       </c>
     </row>
     <row r="748">
@@ -50015,19 +50015,19 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C748" t="n">
-        <v>77219</v>
+        <v>12008</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>Sudbury</t>
+          <t>Windsor Downtown</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>1222 Ramsey Lake Rd.</t>
+          <t>467 University Ave. W.</t>
         </is>
       </c>
       <c r="F748" t="inlineStr">
@@ -50036,44 +50036,44 @@
         </is>
       </c>
       <c r="G748" t="n">
-        <v>4455</v>
+        <v>8480</v>
       </c>
       <c r="H748" t="n">
         <v>0</v>
       </c>
       <c r="I748" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J748" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K748" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L748" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M748" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N748" t="n">
-        <v>4.28</v>
+        <v>8.5</v>
       </c>
       <c r="O748" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="P748" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q748" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R748" t="inlineStr"/>
       <c r="S748" t="n">
-        <v>46.47552</v>
+        <v>42.3161918</v>
       </c>
       <c r="T748" t="n">
-        <v>-80.96369</v>
+        <v>-83.04417889999999</v>
       </c>
     </row>
     <row r="749">
@@ -50084,16 +50084,16 @@
         <v>2003</v>
       </c>
       <c r="C749" t="n">
-        <v>12008</v>
+        <v>12016</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>Windsor Downtown</t>
+          <t>Windsor West</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>467 University Ave. W.</t>
+          <t>College Ave./South St.</t>
         </is>
       </c>
       <c r="F749" t="inlineStr">
@@ -50102,44 +50102,44 @@
         </is>
       </c>
       <c r="G749" t="n">
-        <v>8480</v>
+        <v>8605</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J749" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K749" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L749" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M749" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N749" t="n">
-        <v>8.5</v>
+        <v>9.56</v>
       </c>
       <c r="O749" t="n">
         <v>64</v>
       </c>
       <c r="P749" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q749" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R749" t="inlineStr"/>
       <c r="S749" t="n">
-        <v>42.3161918</v>
+        <v>42.29312100000001</v>
       </c>
       <c r="T749" t="n">
-        <v>-83.04417889999999</v>
+        <v>-83.07329109999999</v>
       </c>
     </row>
     <row r="750">
@@ -50150,16 +50150,16 @@
         <v>2003</v>
       </c>
       <c r="C750" t="n">
-        <v>12016</v>
+        <v>14064</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>Windsor West</t>
+          <t>Sarnia</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>College Ave./South St.</t>
+          <t>Front St. N./CN Tracks, Centennial Park</t>
         </is>
       </c>
       <c r="F750" t="inlineStr">
@@ -50168,44 +50168,44 @@
         </is>
       </c>
       <c r="G750" t="n">
-        <v>8605</v>
+        <v>8350</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I750" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J750" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K750" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L750" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M750" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N750" t="n">
-        <v>9.56</v>
+        <v>11.86</v>
       </c>
       <c r="O750" t="n">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="P750" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="Q750" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R750" t="inlineStr"/>
       <c r="S750" t="n">
-        <v>42.29312100000001</v>
+        <v>42.9803005</v>
       </c>
       <c r="T750" t="n">
-        <v>-83.07329109999999</v>
+        <v>-82.4058754</v>
       </c>
     </row>
     <row r="751">
@@ -50216,16 +50216,16 @@
         <v>2003</v>
       </c>
       <c r="C751" t="n">
-        <v>13021</v>
+        <v>15020</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>Merlin</t>
+          <t>Grand Bend</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>Middle Rd., Moe Water Pump Stn.</t>
+          <t>Point Blake Conservation Area</t>
         </is>
       </c>
       <c r="F751" t="inlineStr">
@@ -50234,10 +50234,10 @@
         </is>
       </c>
       <c r="G751" t="n">
-        <v>5053</v>
+        <v>5847</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I751" t="n">
         <v>4</v>
@@ -50246,13 +50246,13 @@
         <v>7</v>
       </c>
       <c r="K751" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L751" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M751" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -50260,20 +50260,20 @@
         </is>
       </c>
       <c r="O751" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P751" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q751" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R751" t="inlineStr"/>
       <c r="S751" t="n">
-        <v>0</v>
+        <v>43.3130397</v>
       </c>
       <c r="T751" t="n">
-        <v>0</v>
+        <v>-81.75622419999999</v>
       </c>
     </row>
     <row r="752">
@@ -50284,16 +50284,16 @@
         <v>2003</v>
       </c>
       <c r="C752" t="n">
-        <v>14064</v>
+        <v>15025</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Sarnia</t>
+          <t>London</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>Front St. N./CN Tracks, Centennial Park</t>
+          <t>900 Highbury Ave. N.</t>
         </is>
       </c>
       <c r="F752" t="inlineStr">
@@ -50302,44 +50302,44 @@
         </is>
       </c>
       <c r="G752" t="n">
-        <v>8350</v>
+        <v>7730</v>
       </c>
       <c r="H752" t="n">
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
         <v>3</v>
       </c>
-      <c r="I752" t="n">
+      <c r="J752" t="n">
         <v>6</v>
       </c>
-      <c r="J752" t="n">
+      <c r="K752" t="n">
+        <v>10</v>
+      </c>
+      <c r="L752" t="n">
+        <v>17</v>
+      </c>
+      <c r="M752" t="n">
+        <v>39</v>
+      </c>
+      <c r="N752" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="O752" t="n">
+        <v>56</v>
+      </c>
+      <c r="P752" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q752" t="n">
         <v>9</v>
-      </c>
-      <c r="K752" t="n">
-        <v>14</v>
-      </c>
-      <c r="L752" t="n">
-        <v>24</v>
-      </c>
-      <c r="M752" t="n">
-        <v>49</v>
-      </c>
-      <c r="N752" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="O752" t="n">
-        <v>101</v>
-      </c>
-      <c r="P752" t="n">
-        <v>59</v>
-      </c>
-      <c r="Q752" t="n">
-        <v>13</v>
       </c>
       <c r="R752" t="inlineStr"/>
       <c r="S752" t="n">
-        <v>42.9803005</v>
+        <v>43.0057206</v>
       </c>
       <c r="T752" t="n">
-        <v>-82.4058754</v>
+        <v>-81.20767409999999</v>
       </c>
     </row>
     <row r="753">
@@ -50350,16 +50350,16 @@
         <v>2003</v>
       </c>
       <c r="C753" t="n">
-        <v>15020</v>
+        <v>16015</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>Grand Bend</t>
+          <t>Port Stanley</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
         <is>
-          <t>Point Blake Conservation Area</t>
+          <t>43665 Dexter Line, Elgin Water T. Plt</t>
         </is>
       </c>
       <c r="F753" t="inlineStr">
@@ -50368,46 +50368,44 @@
         </is>
       </c>
       <c r="G753" t="n">
-        <v>5847</v>
+        <v>8332</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J753" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K753" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L753" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M753" t="n">
-        <v>42</v>
-      </c>
-      <c r="N753" t="inlineStr">
-        <is>
-          <t>INS</t>
-        </is>
+        <v>39</v>
+      </c>
+      <c r="N753" t="n">
+        <v>7.98</v>
       </c>
       <c r="O753" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P753" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q753" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R753" t="inlineStr"/>
       <c r="S753" t="n">
-        <v>43.3130397</v>
+        <v>42.6737899</v>
       </c>
       <c r="T753" t="n">
-        <v>-81.75622419999999</v>
+        <v>-81.1616973</v>
       </c>
     </row>
     <row r="754">
@@ -50418,16 +50416,16 @@
         <v>2003</v>
       </c>
       <c r="C754" t="n">
-        <v>15025</v>
+        <v>18007</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Tiverton</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>900 Highbury Ave. N.</t>
+          <t>4th Concession/Bruce Rd. 23</t>
         </is>
       </c>
       <c r="F754" t="inlineStr">
@@ -50436,44 +50434,44 @@
         </is>
       </c>
       <c r="G754" t="n">
-        <v>7730</v>
+        <v>8289</v>
       </c>
       <c r="H754" t="n">
         <v>1</v>
       </c>
       <c r="I754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J754" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K754" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L754" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M754" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N754" t="n">
-        <v>7.89</v>
+        <v>6.46</v>
       </c>
       <c r="O754" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="P754" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q754" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R754" t="inlineStr"/>
       <c r="S754" t="n">
-        <v>43.0057206</v>
+        <v>44.2525428</v>
       </c>
       <c r="T754" t="n">
-        <v>-81.20767409999999</v>
+        <v>-81.5842686</v>
       </c>
     </row>
     <row r="755">
@@ -50484,16 +50482,16 @@
         <v>2003</v>
       </c>
       <c r="C755" t="n">
-        <v>16015</v>
+        <v>26060</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Port Stanley</t>
+          <t>Kitchener</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>43665 Dexter Line, Elgin Water T. Plt</t>
+          <t>West Ave./Homewood Ave.</t>
         </is>
       </c>
       <c r="F755" t="inlineStr">
@@ -50502,7 +50500,7 @@
         </is>
       </c>
       <c r="G755" t="n">
-        <v>8332</v>
+        <v>7797</v>
       </c>
       <c r="H755" t="n">
         <v>1</v>
@@ -50517,29 +50515,29 @@
         <v>9</v>
       </c>
       <c r="L755" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M755" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N755" t="n">
-        <v>7.98</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="O755" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P755" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q755" t="n">
         <v>5</v>
       </c>
       <c r="R755" t="inlineStr"/>
       <c r="S755" t="n">
-        <v>42.6737899</v>
+        <v>43.442927</v>
       </c>
       <c r="T755" t="n">
-        <v>-81.1616973</v>
+        <v>-80.5038914</v>
       </c>
     </row>
     <row r="756">
@@ -50550,16 +50548,16 @@
         <v>2003</v>
       </c>
       <c r="C756" t="n">
-        <v>18007</v>
+        <v>27067</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>Tiverton</t>
+          <t>St. Catharines</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>4th Concession/Bruce Rd. 23</t>
+          <t>Argyle Cres., Pump Stn.</t>
         </is>
       </c>
       <c r="F756" t="inlineStr">
@@ -50568,44 +50566,44 @@
         </is>
       </c>
       <c r="G756" t="n">
-        <v>8289</v>
+        <v>8611</v>
       </c>
       <c r="H756" t="n">
         <v>1</v>
       </c>
       <c r="I756" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J756" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K756" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L756" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M756" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N756" t="n">
-        <v>6.46</v>
+        <v>7.83</v>
       </c>
       <c r="O756" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P756" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q756" t="n">
         <v>4</v>
       </c>
       <c r="R756" t="inlineStr"/>
       <c r="S756" t="n">
-        <v>44.2525428</v>
+        <v>43.1601181</v>
       </c>
       <c r="T756" t="n">
-        <v>-81.5842686</v>
+        <v>-79.234117</v>
       </c>
     </row>
     <row r="757">
@@ -50616,16 +50614,16 @@
         <v>2003</v>
       </c>
       <c r="C757" t="n">
-        <v>26060</v>
+        <v>28028</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Kitchener</t>
+          <t>Guelph</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>West Ave./Homewood Ave.</t>
+          <t>Exhibition St./Clark St. W.</t>
         </is>
       </c>
       <c r="F757" t="inlineStr">
@@ -50634,7 +50632,7 @@
         </is>
       </c>
       <c r="G757" t="n">
-        <v>7797</v>
+        <v>7578</v>
       </c>
       <c r="H757" t="n">
         <v>1</v>
@@ -50643,35 +50641,35 @@
         <v>3</v>
       </c>
       <c r="J757" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K757" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L757" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M757" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N757" t="n">
-        <v>8.119999999999999</v>
+        <v>7.32</v>
       </c>
       <c r="O757" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P757" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q757" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R757" t="inlineStr"/>
       <c r="S757" t="n">
-        <v>43.442927</v>
+        <v>43.5520494</v>
       </c>
       <c r="T757" t="n">
-        <v>-80.5038914</v>
+        <v>-80.26424879999999</v>
       </c>
     </row>
     <row r="758">
@@ -50682,16 +50680,16 @@
         <v>2003</v>
       </c>
       <c r="C758" t="n">
-        <v>27067</v>
+        <v>29000</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>St. Catharines</t>
+          <t>Hamilton Downtown</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>Argyle Cres., Pump Stn.</t>
+          <t>Elgin St./Kelly St.</t>
         </is>
       </c>
       <c r="F758" t="inlineStr">
@@ -50700,44 +50698,44 @@
         </is>
       </c>
       <c r="G758" t="n">
-        <v>8611</v>
+        <v>8662</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I758" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J758" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K758" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L758" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M758" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N758" t="n">
-        <v>7.83</v>
+        <v>10.61</v>
       </c>
       <c r="O758" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P758" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q758" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R758" t="inlineStr"/>
       <c r="S758" t="n">
-        <v>43.1601181</v>
+        <v>43.3385085</v>
       </c>
       <c r="T758" t="n">
-        <v>-79.234117</v>
+        <v>-79.8991206</v>
       </c>
     </row>
     <row r="759">
@@ -50748,16 +50746,16 @@
         <v>2003</v>
       </c>
       <c r="C759" t="n">
-        <v>28028</v>
+        <v>29114</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>Guelph</t>
+          <t>Hamilton Mountain</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>Exhibition St./Clark St. W.</t>
+          <t>Vickers Rd./E. 18th St.</t>
         </is>
       </c>
       <c r="F759" t="inlineStr">
@@ -50766,44 +50764,44 @@
         </is>
       </c>
       <c r="G759" t="n">
-        <v>7578</v>
+        <v>8461</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I759" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J759" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K759" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L759" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M759" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N759" t="n">
-        <v>7.32</v>
+        <v>9.59</v>
       </c>
       <c r="O759" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P759" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q759" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R759" t="inlineStr"/>
       <c r="S759" t="n">
-        <v>43.5520494</v>
+        <v>43.2296193</v>
       </c>
       <c r="T759" t="n">
-        <v>-80.26424879999999</v>
+        <v>-79.8619994</v>
       </c>
     </row>
     <row r="760">
@@ -50814,16 +50812,16 @@
         <v>2003</v>
       </c>
       <c r="C760" t="n">
-        <v>29000</v>
+        <v>29118</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>Hamilton Downtown</t>
+          <t>Hamilton West</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>Elgin St./Kelly St.</t>
+          <t>Main St. W./Hwy 403</t>
         </is>
       </c>
       <c r="F760" t="inlineStr">
@@ -50832,44 +50830,46 @@
         </is>
       </c>
       <c r="G760" t="n">
-        <v>8662</v>
+        <v>6512</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J760" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K760" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L760" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M760" t="n">
         <v>44</v>
       </c>
-      <c r="N760" t="n">
-        <v>10.61</v>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>INS</t>
+        </is>
       </c>
       <c r="O760" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="P760" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q760" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R760" t="inlineStr"/>
       <c r="S760" t="n">
-        <v>43.3385085</v>
+        <v>43.2590473</v>
       </c>
       <c r="T760" t="n">
-        <v>-79.8991206</v>
+        <v>-79.8863308</v>
       </c>
     </row>
     <row r="761">
@@ -50880,16 +50880,16 @@
         <v>2003</v>
       </c>
       <c r="C761" t="n">
-        <v>29114</v>
+        <v>31103</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>Hamilton Mountain</t>
+          <t>Toronto Downtown</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Vickers Rd./E. 18th St.</t>
+          <t>Bay St./Wellesley St. W.</t>
         </is>
       </c>
       <c r="F761" t="inlineStr">
@@ -50898,44 +50898,44 @@
         </is>
       </c>
       <c r="G761" t="n">
-        <v>8461</v>
+        <v>8666</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J761" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K761" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L761" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M761" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N761" t="n">
-        <v>9.59</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="O761" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P761" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q761" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R761" t="inlineStr"/>
       <c r="S761" t="n">
-        <v>43.2296193</v>
+        <v>43.6643907</v>
       </c>
       <c r="T761" t="n">
-        <v>-79.8619994</v>
+        <v>-79.3871406</v>
       </c>
     </row>
     <row r="762">
@@ -50946,16 +50946,16 @@
         <v>2003</v>
       </c>
       <c r="C762" t="n">
-        <v>29118</v>
+        <v>33003</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>Hamilton West</t>
+          <t>Toronto East</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
         <is>
-          <t>Main St. W./Hwy 403</t>
+          <t>Kennedy Rd./Lawrence Ave. E.</t>
         </is>
       </c>
       <c r="F762" t="inlineStr">
@@ -50964,46 +50964,44 @@
         </is>
       </c>
       <c r="G762" t="n">
-        <v>6512</v>
+        <v>8611</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I762" t="n">
         <v>4</v>
       </c>
       <c r="J762" t="n">
+        <v>6</v>
+      </c>
+      <c r="K762" t="n">
+        <v>10</v>
+      </c>
+      <c r="L762" t="n">
+        <v>19</v>
+      </c>
+      <c r="M762" t="n">
+        <v>42</v>
+      </c>
+      <c r="N762" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="O762" t="n">
+        <v>69</v>
+      </c>
+      <c r="P762" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q762" t="n">
         <v>7</v>
-      </c>
-      <c r="K762" t="n">
-        <v>11</v>
-      </c>
-      <c r="L762" t="n">
-        <v>22</v>
-      </c>
-      <c r="M762" t="n">
-        <v>44</v>
-      </c>
-      <c r="N762" t="inlineStr">
-        <is>
-          <t>INS</t>
-        </is>
-      </c>
-      <c r="O762" t="n">
-        <v>87</v>
-      </c>
-      <c r="P762" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q762" t="n">
-        <v>9</v>
       </c>
       <c r="R762" t="inlineStr"/>
       <c r="S762" t="n">
-        <v>43.2590473</v>
+        <v>43.7496122</v>
       </c>
       <c r="T762" t="n">
-        <v>-79.8863308</v>
+        <v>-79.2748941</v>
       </c>
     </row>
     <row r="763">
@@ -51014,16 +51012,16 @@
         <v>2003</v>
       </c>
       <c r="C763" t="n">
-        <v>31103</v>
+        <v>34020</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>Toronto Downtown</t>
+          <t>Toronto North</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>Bay St./Wellesley St. W.</t>
+          <t>Hendon Ave./Yonge St.</t>
         </is>
       </c>
       <c r="F763" t="inlineStr">
@@ -51032,7 +51030,7 @@
         </is>
       </c>
       <c r="G763" t="n">
-        <v>8666</v>
+        <v>8565</v>
       </c>
       <c r="H763" t="n">
         <v>1</v>
@@ -51050,26 +51048,26 @@
         <v>18</v>
       </c>
       <c r="M763" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N763" t="n">
-        <v>8.380000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="O763" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P763" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q763" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R763" t="inlineStr"/>
       <c r="S763" t="n">
-        <v>43.6643907</v>
+        <v>43.7816303</v>
       </c>
       <c r="T763" t="n">
-        <v>-79.3871406</v>
+        <v>-79.4161189</v>
       </c>
     </row>
     <row r="764">
@@ -51080,16 +51078,16 @@
         <v>2003</v>
       </c>
       <c r="C764" t="n">
-        <v>33003</v>
+        <v>35125</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>Toronto East</t>
+          <t>Toronto West</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>Kennedy Rd./Lawrence Ave. E.</t>
+          <t>125 Resources Rd.</t>
         </is>
       </c>
       <c r="F764" t="inlineStr">
@@ -51098,44 +51096,44 @@
         </is>
       </c>
       <c r="G764" t="n">
-        <v>8611</v>
+        <v>8539</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I764" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J764" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K764" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L764" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M764" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N764" t="n">
-        <v>8.77</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O764" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P764" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q764" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R764" t="inlineStr"/>
       <c r="S764" t="n">
-        <v>43.7496122</v>
+        <v>43.7106127</v>
       </c>
       <c r="T764" t="n">
-        <v>-79.2748941</v>
+        <v>-79.54164779999999</v>
       </c>
     </row>
     <row r="765">
@@ -51146,16 +51144,16 @@
         <v>2003</v>
       </c>
       <c r="C765" t="n">
-        <v>34020</v>
+        <v>44008</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>Toronto North</t>
+          <t>Burlington</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>Hendon Ave./Yonge St.</t>
+          <t>North Shore Blvd. E./Lakeshore Rd.</t>
         </is>
       </c>
       <c r="F765" t="inlineStr">
@@ -51164,13 +51162,13 @@
         </is>
       </c>
       <c r="G765" t="n">
-        <v>8565</v>
+        <v>8665</v>
       </c>
       <c r="H765" t="n">
         <v>1</v>
       </c>
       <c r="I765" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J765" t="n">
         <v>6</v>
@@ -51182,26 +51180,26 @@
         <v>18</v>
       </c>
       <c r="M765" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N765" t="n">
-        <v>8.33</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="O765" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P765" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q765" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R765" t="inlineStr"/>
       <c r="S765" t="n">
-        <v>43.7816303</v>
+        <v>43.3192651</v>
       </c>
       <c r="T765" t="n">
-        <v>-79.4161189</v>
+        <v>-79.801839</v>
       </c>
     </row>
     <row r="766">
@@ -51212,16 +51210,16 @@
         <v>2003</v>
       </c>
       <c r="C766" t="n">
-        <v>35125</v>
+        <v>44017</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>Toronto West</t>
+          <t>Oakville</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>125 Resources Rd.</t>
+          <t>Eighth Line/Glenashton Dr., Halton Res.</t>
         </is>
       </c>
       <c r="F766" t="inlineStr">
@@ -51230,10 +51228,10 @@
         </is>
       </c>
       <c r="G766" t="n">
-        <v>8539</v>
+        <v>5063</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="n">
         <v>5</v>
@@ -51245,29 +51243,31 @@
         <v>11</v>
       </c>
       <c r="L766" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M766" t="n">
-        <v>41</v>
-      </c>
-      <c r="N766" t="n">
-        <v>9.800000000000001</v>
+        <v>47</v>
+      </c>
+      <c r="N766" t="inlineStr">
+        <is>
+          <t>INS</t>
+        </is>
       </c>
       <c r="O766" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="P766" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q766" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R766" t="inlineStr"/>
       <c r="S766" t="n">
-        <v>43.7106127</v>
+        <v>43.4855335</v>
       </c>
       <c r="T766" t="n">
-        <v>-79.54164779999999</v>
+        <v>-79.7022308</v>
       </c>
     </row>
     <row r="767">
@@ -51278,16 +51278,16 @@
         <v>2003</v>
       </c>
       <c r="C767" t="n">
-        <v>44008</v>
+        <v>45025</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Burlington</t>
+          <t>Oshawa</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>North Shore Blvd. E./Lakeshore Rd.</t>
+          <t>Ritson Rd. Public School</t>
         </is>
       </c>
       <c r="F767" t="inlineStr">
@@ -51296,44 +51296,44 @@
         </is>
       </c>
       <c r="G767" t="n">
-        <v>8665</v>
+        <v>8492</v>
       </c>
       <c r="H767" t="n">
         <v>1</v>
       </c>
       <c r="I767" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J767" t="n">
         <v>6</v>
       </c>
       <c r="K767" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L767" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M767" t="n">
         <v>40</v>
       </c>
       <c r="N767" t="n">
-        <v>8.630000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="O767" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P767" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q767" t="n">
         <v>6</v>
       </c>
       <c r="R767" t="inlineStr"/>
       <c r="S767" t="n">
-        <v>43.3192651</v>
+        <v>43.969336</v>
       </c>
       <c r="T767" t="n">
-        <v>-79.801839</v>
+        <v>-78.8840108</v>
       </c>
     </row>
     <row r="768">
@@ -51344,16 +51344,16 @@
         <v>2003</v>
       </c>
       <c r="C768" t="n">
-        <v>44017</v>
+        <v>46089</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>Oakville</t>
+          <t>Brampton</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>Eighth Line/Glenashton Dr., Halton Res.</t>
+          <t>525 Main St. N., Peel Manor</t>
         </is>
       </c>
       <c r="F768" t="inlineStr">
@@ -51362,46 +51362,44 @@
         </is>
       </c>
       <c r="G768" t="n">
-        <v>5063</v>
+        <v>8675</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J768" t="n">
+        <v>6</v>
+      </c>
+      <c r="K768" t="n">
+        <v>10</v>
+      </c>
+      <c r="L768" t="n">
+        <v>18</v>
+      </c>
+      <c r="M768" t="n">
+        <v>39</v>
+      </c>
+      <c r="N768" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O768" t="n">
+        <v>64</v>
+      </c>
+      <c r="P768" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q768" t="n">
         <v>7</v>
-      </c>
-      <c r="K768" t="n">
-        <v>11</v>
-      </c>
-      <c r="L768" t="n">
-        <v>22</v>
-      </c>
-      <c r="M768" t="n">
-        <v>47</v>
-      </c>
-      <c r="N768" t="inlineStr">
-        <is>
-          <t>INS</t>
-        </is>
-      </c>
-      <c r="O768" t="n">
-        <v>67</v>
-      </c>
-      <c r="P768" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q768" t="n">
-        <v>6</v>
       </c>
       <c r="R768" t="inlineStr"/>
       <c r="S768" t="n">
-        <v>43.4855335</v>
+        <v>43.6999865</v>
       </c>
       <c r="T768" t="n">
-        <v>-79.7022308</v>
+        <v>-79.78142629999999</v>
       </c>
     </row>
     <row r="769">
@@ -51412,16 +51410,16 @@
         <v>2003</v>
       </c>
       <c r="C769" t="n">
-        <v>45025</v>
+        <v>46110</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>Oshawa</t>
+          <t>Mississauga</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>Ritson Rd. Public School</t>
+          <t>Mississauga General Hospital</t>
         </is>
       </c>
       <c r="F769" t="inlineStr">
@@ -51430,13 +51428,13 @@
         </is>
       </c>
       <c r="G769" t="n">
-        <v>8492</v>
+        <v>8347</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I769" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J769" t="n">
         <v>6</v>
@@ -51448,26 +51446,26 @@
         <v>17</v>
       </c>
       <c r="M769" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N769" t="n">
-        <v>7.8</v>
+        <v>7.87</v>
       </c>
       <c r="O769" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P769" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q769" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R769" t="inlineStr"/>
       <c r="S769" t="n">
-        <v>43.969336</v>
+        <v>43.5852972</v>
       </c>
       <c r="T769" t="n">
-        <v>-78.8840108</v>
+        <v>-79.64498379999999</v>
       </c>
     </row>
     <row r="770">
@@ -51478,16 +51476,16 @@
         <v>2003</v>
       </c>
       <c r="C770" t="n">
-        <v>46089</v>
+        <v>47045</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>Brampton</t>
+          <t>Barrie</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>525 Main St. N., Peel Manor</t>
+          <t>83 Perry St.</t>
         </is>
       </c>
       <c r="F770" t="inlineStr">
@@ -51496,7 +51494,7 @@
         </is>
       </c>
       <c r="G770" t="n">
-        <v>8675</v>
+        <v>8476</v>
       </c>
       <c r="H770" t="n">
         <v>1</v>
@@ -51505,35 +51503,35 @@
         <v>3</v>
       </c>
       <c r="J770" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K770" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L770" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M770" t="n">
+        <v>36</v>
+      </c>
+      <c r="N770" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="O770" t="n">
+        <v>61</v>
+      </c>
+      <c r="P770" t="n">
         <v>39</v>
       </c>
-      <c r="N770" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O770" t="n">
-        <v>64</v>
-      </c>
-      <c r="P770" t="n">
-        <v>42</v>
-      </c>
       <c r="Q770" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R770" t="inlineStr"/>
       <c r="S770" t="n">
-        <v>43.6999865</v>
+        <v>44.3825072</v>
       </c>
       <c r="T770" t="n">
-        <v>-79.78142629999999</v>
+        <v>-79.7019469</v>
       </c>
     </row>
     <row r="771">
@@ -51544,16 +51542,16 @@
         <v>2003</v>
       </c>
       <c r="C771" t="n">
-        <v>46110</v>
+        <v>48006</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>Mississauga</t>
+          <t>Newmarket</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>Mississauga General Hospital</t>
+          <t>Eagle St. W./McCaffrey Rd.</t>
         </is>
       </c>
       <c r="F771" t="inlineStr">
@@ -51562,44 +51560,44 @@
         </is>
       </c>
       <c r="G771" t="n">
-        <v>8347</v>
+        <v>8590</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
+        <v>3</v>
+      </c>
+      <c r="J771" t="n">
+        <v>5</v>
+      </c>
+      <c r="K771" t="n">
+        <v>8</v>
+      </c>
+      <c r="L771" t="n">
+        <v>16</v>
+      </c>
+      <c r="M771" t="n">
+        <v>38</v>
+      </c>
+      <c r="N771" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O771" t="n">
+        <v>59</v>
+      </c>
+      <c r="P771" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q771" t="n">
         <v>4</v>
-      </c>
-      <c r="J771" t="n">
-        <v>6</v>
-      </c>
-      <c r="K771" t="n">
-        <v>9</v>
-      </c>
-      <c r="L771" t="n">
-        <v>17</v>
-      </c>
-      <c r="M771" t="n">
-        <v>39</v>
-      </c>
-      <c r="N771" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="O771" t="n">
-        <v>67</v>
-      </c>
-      <c r="P771" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q771" t="n">
-        <v>7</v>
       </c>
       <c r="R771" t="inlineStr"/>
       <c r="S771" t="n">
-        <v>43.5852972</v>
+        <v>44.0447883</v>
       </c>
       <c r="T771" t="n">
-        <v>-79.64498379999999</v>
+        <v>-79.48246139999999</v>
       </c>
     </row>
     <row r="772">
@@ -51610,16 +51608,16 @@
         <v>2003</v>
       </c>
       <c r="C772" t="n">
-        <v>47045</v>
+        <v>49005</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>Barrie</t>
+          <t>Parry Sound</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>83 Perry St.</t>
+          <t>7 Bay St.</t>
         </is>
       </c>
       <c r="F772" t="inlineStr">
@@ -51628,44 +51626,46 @@
         </is>
       </c>
       <c r="G772" t="n">
-        <v>8476</v>
+        <v>6494</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="n">
+        <v>2</v>
+      </c>
+      <c r="J772" t="n">
+        <v>4</v>
+      </c>
+      <c r="K772" t="n">
+        <v>7</v>
+      </c>
+      <c r="L772" t="n">
+        <v>13</v>
+      </c>
+      <c r="M772" t="n">
+        <v>35</v>
+      </c>
+      <c r="N772" t="inlineStr">
+        <is>
+          <t>INS</t>
+        </is>
+      </c>
+      <c r="O772" t="n">
+        <v>56</v>
+      </c>
+      <c r="P772" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q772" t="n">
         <v>3</v>
-      </c>
-      <c r="J772" t="n">
-        <v>5</v>
-      </c>
-      <c r="K772" t="n">
-        <v>9</v>
-      </c>
-      <c r="L772" t="n">
-        <v>17</v>
-      </c>
-      <c r="M772" t="n">
-        <v>36</v>
-      </c>
-      <c r="N772" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="O772" t="n">
-        <v>61</v>
-      </c>
-      <c r="P772" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q772" t="n">
-        <v>4</v>
       </c>
       <c r="R772" t="inlineStr"/>
       <c r="S772" t="n">
-        <v>44.3825072</v>
+        <v>45.3385271</v>
       </c>
       <c r="T772" t="n">
-        <v>-79.7019469</v>
+        <v>-80.0377439</v>
       </c>
     </row>
     <row r="773">
@@ -51676,16 +51676,16 @@
         <v>2003</v>
       </c>
       <c r="C773" t="n">
-        <v>48006</v>
+        <v>49010</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>Newmarket</t>
+          <t>Dorset</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>Eagle St. W./McCaffrey Rd.</t>
+          <t>1026 Bellwood Acres Rd.</t>
         </is>
       </c>
       <c r="F773" t="inlineStr">
@@ -51694,44 +51694,44 @@
         </is>
       </c>
       <c r="G773" t="n">
-        <v>8590</v>
+        <v>7117</v>
       </c>
       <c r="H773" t="n">
+        <v>0</v>
+      </c>
+      <c r="I773" t="n">
+        <v>2</v>
+      </c>
+      <c r="J773" t="n">
+        <v>4</v>
+      </c>
+      <c r="K773" t="n">
+        <v>7</v>
+      </c>
+      <c r="L773" t="n">
+        <v>13</v>
+      </c>
+      <c r="M773" t="n">
+        <v>29</v>
+      </c>
+      <c r="N773" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="O773" t="n">
+        <v>49</v>
+      </c>
+      <c r="P773" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q773" t="n">
         <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>3</v>
-      </c>
-      <c r="J773" t="n">
-        <v>5</v>
-      </c>
-      <c r="K773" t="n">
-        <v>8</v>
-      </c>
-      <c r="L773" t="n">
-        <v>16</v>
-      </c>
-      <c r="M773" t="n">
-        <v>38</v>
-      </c>
-      <c r="N773" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O773" t="n">
-        <v>59</v>
-      </c>
-      <c r="P773" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q773" t="n">
-        <v>4</v>
       </c>
       <c r="R773" t="inlineStr"/>
       <c r="S773" t="n">
-        <v>44.0447883</v>
+        <v>45.22504</v>
       </c>
       <c r="T773" t="n">
-        <v>-79.48246139999999</v>
+        <v>-78.9302</v>
       </c>
     </row>
     <row r="774">
@@ -51742,16 +51742,16 @@
         <v>2003</v>
       </c>
       <c r="C774" t="n">
-        <v>49005</v>
+        <v>51001</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>Parry Sound</t>
+          <t>Ottawa Downtown</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>7 Bay St.</t>
+          <t>Rideau St./Wurtemburg St.</t>
         </is>
       </c>
       <c r="F774" t="inlineStr">
@@ -51760,46 +51760,44 @@
         </is>
       </c>
       <c r="G774" t="n">
-        <v>6494</v>
+        <v>8128</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J774" t="n">
+        <v>5</v>
+      </c>
+      <c r="K774" t="n">
+        <v>8</v>
+      </c>
+      <c r="L774" t="n">
+        <v>17</v>
+      </c>
+      <c r="M774" t="n">
+        <v>33</v>
+      </c>
+      <c r="N774" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="O774" t="n">
+        <v>60</v>
+      </c>
+      <c r="P774" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q774" t="n">
         <v>4</v>
-      </c>
-      <c r="K774" t="n">
-        <v>7</v>
-      </c>
-      <c r="L774" t="n">
-        <v>13</v>
-      </c>
-      <c r="M774" t="n">
-        <v>35</v>
-      </c>
-      <c r="N774" t="inlineStr">
-        <is>
-          <t>INS</t>
-        </is>
-      </c>
-      <c r="O774" t="n">
-        <v>56</v>
-      </c>
-      <c r="P774" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q774" t="n">
-        <v>3</v>
       </c>
       <c r="R774" t="inlineStr"/>
       <c r="S774" t="n">
-        <v>45.3385271</v>
+        <v>45.4332793</v>
       </c>
       <c r="T774" t="n">
-        <v>-80.0377439</v>
+        <v>-75.67489279999999</v>
       </c>
     </row>
     <row r="775">
@@ -51810,16 +51808,16 @@
         <v>2003</v>
       </c>
       <c r="C775" t="n">
-        <v>49010</v>
+        <v>52020</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>Dorset</t>
+          <t>Kingston</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>1026 Bellwood Acres Rd.</t>
+          <t>133 Dalton St.</t>
         </is>
       </c>
       <c r="F775" t="inlineStr">
@@ -51828,44 +51826,44 @@
         </is>
       </c>
       <c r="G775" t="n">
-        <v>7117</v>
+        <v>6964</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J775" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K775" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L775" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M775" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N775" t="n">
-        <v>5.89</v>
+        <v>8.65</v>
       </c>
       <c r="O775" t="n">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="P775" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="Q775" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R775" t="inlineStr"/>
       <c r="S775" t="n">
-        <v>45.22504</v>
+        <v>44.2670624</v>
       </c>
       <c r="T775" t="n">
-        <v>-78.9302</v>
+        <v>-76.50453229999999</v>
       </c>
     </row>
     <row r="776">
@@ -51876,16 +51874,16 @@
         <v>2003</v>
       </c>
       <c r="C776" t="n">
-        <v>51001</v>
+        <v>54012</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>Ottawa Downtown</t>
+          <t>Belleville</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>Rideau St./Wurtemburg St.</t>
+          <t>2 Sidney St., Water Treatment Plant</t>
         </is>
       </c>
       <c r="F776" t="inlineStr">
@@ -51894,7 +51892,7 @@
         </is>
       </c>
       <c r="G776" t="n">
-        <v>8128</v>
+        <v>8658</v>
       </c>
       <c r="H776" t="n">
         <v>1</v>
@@ -51909,29 +51907,29 @@
         <v>8</v>
       </c>
       <c r="L776" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M776" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N776" t="n">
-        <v>7.23</v>
+        <v>6.91</v>
       </c>
       <c r="O776" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P776" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q776" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R776" t="inlineStr"/>
       <c r="S776" t="n">
-        <v>45.4332793</v>
+        <v>44.1627589</v>
       </c>
       <c r="T776" t="n">
-        <v>-75.67489279999999</v>
+        <v>-77.38323149999999</v>
       </c>
     </row>
     <row r="777">
@@ -51942,16 +51940,16 @@
         <v>2003</v>
       </c>
       <c r="C777" t="n">
-        <v>52020</v>
+        <v>56051</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>Cornwall</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>133 Dalton St.</t>
+          <t>Bedford St./3rd St. W.</t>
         </is>
       </c>
       <c r="F777" t="inlineStr">
@@ -51960,44 +51958,46 @@
         </is>
       </c>
       <c r="G777" t="n">
-        <v>6964</v>
+        <v>6070</v>
       </c>
       <c r="H777" t="n">
         <v>1</v>
       </c>
       <c r="I777" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J777" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K777" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L777" t="n">
         <v>19</v>
       </c>
       <c r="M777" t="n">
-        <v>43</v>
-      </c>
-      <c r="N777" t="n">
-        <v>8.65</v>
+        <v>42</v>
+      </c>
+      <c r="N777" t="inlineStr">
+        <is>
+          <t>INS</t>
+        </is>
       </c>
       <c r="O777" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="P777" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q777" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R777" t="inlineStr"/>
       <c r="S777" t="n">
-        <v>44.2670624</v>
+        <v>45.0179513</v>
       </c>
       <c r="T777" t="n">
-        <v>-76.50453229999999</v>
+        <v>-74.7357872</v>
       </c>
     </row>
     <row r="778">
@@ -52008,16 +52008,16 @@
         <v>2003</v>
       </c>
       <c r="C778" t="n">
-        <v>54012</v>
+        <v>59006</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>Belleville</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>2 Sidney St., Water Treatment Plant</t>
+          <t>10 Hospital Dr.</t>
         </is>
       </c>
       <c r="F778" t="inlineStr">
@@ -52026,7 +52026,7 @@
         </is>
       </c>
       <c r="G778" t="n">
-        <v>8658</v>
+        <v>8608</v>
       </c>
       <c r="H778" t="n">
         <v>1</v>
@@ -52044,13 +52044,13 @@
         <v>15</v>
       </c>
       <c r="M778" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N778" t="n">
-        <v>6.91</v>
+        <v>6.66</v>
       </c>
       <c r="O778" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P778" t="n">
         <v>42</v>
@@ -52060,10 +52060,10 @@
       </c>
       <c r="R778" t="inlineStr"/>
       <c r="S778" t="n">
-        <v>44.1627589</v>
+        <v>44.3016516</v>
       </c>
       <c r="T778" t="n">
-        <v>-77.38323149999999</v>
+        <v>-78.3468432</v>
       </c>
     </row>
     <row r="779">
@@ -52074,16 +52074,16 @@
         <v>2003</v>
       </c>
       <c r="C779" t="n">
-        <v>56051</v>
+        <v>63200</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>Cornwall</t>
+          <t>Thunder Bay</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>Bedford St./3rd St. W.</t>
+          <t>615 James St. S., MTO</t>
         </is>
       </c>
       <c r="F779" t="inlineStr">
@@ -52092,7 +52092,7 @@
         </is>
       </c>
       <c r="G779" t="n">
-        <v>6070</v>
+        <v>8208</v>
       </c>
       <c r="H779" t="n">
         <v>1</v>
@@ -52101,37 +52101,35 @@
         <v>3</v>
       </c>
       <c r="J779" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K779" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L779" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M779" t="n">
-        <v>42</v>
-      </c>
-      <c r="N779" t="inlineStr">
-        <is>
-          <t>INS</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="N779" t="n">
+        <v>6.1</v>
       </c>
       <c r="O779" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P779" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q779" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R779" t="inlineStr"/>
       <c r="S779" t="n">
-        <v>45.0179513</v>
+        <v>48.3764489</v>
       </c>
       <c r="T779" t="n">
-        <v>-74.7357872</v>
+        <v>-89.29077679999999</v>
       </c>
     </row>
     <row r="780">
@@ -52142,16 +52140,16 @@
         <v>2003</v>
       </c>
       <c r="C780" t="n">
-        <v>59006</v>
+        <v>71068</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Sault Ste. Marie</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>10 Hospital Dr.</t>
+          <t>Wm. Merrifield School</t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
@@ -52160,44 +52158,46 @@
         </is>
       </c>
       <c r="G780" t="n">
-        <v>8608</v>
+        <v>4076</v>
       </c>
       <c r="H780" t="n">
         <v>1</v>
       </c>
       <c r="I780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J780" t="n">
         <v>5</v>
       </c>
       <c r="K780" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L780" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M780" t="n">
-        <v>35</v>
-      </c>
-      <c r="N780" t="n">
-        <v>6.66</v>
+        <v>39</v>
+      </c>
+      <c r="N780" t="inlineStr">
+        <is>
+          <t>INS</t>
+        </is>
       </c>
       <c r="O780" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P780" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q780" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R780" t="inlineStr"/>
       <c r="S780" t="n">
-        <v>44.3016516</v>
+        <v>46.5136494</v>
       </c>
       <c r="T780" t="n">
-        <v>-78.3468432</v>
+        <v>-84.33575259999999</v>
       </c>
     </row>
     <row r="781">
@@ -52208,16 +52208,16 @@
         <v>2003</v>
       </c>
       <c r="C781" t="n">
-        <v>63200</v>
+        <v>75010</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>Thunder Bay</t>
+          <t>North Bay</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>615 James St. S., MTO</t>
+          <t>Chippewa St. W., Dept. National Defence</t>
         </is>
       </c>
       <c r="F781" t="inlineStr">
@@ -52226,177 +52226,43 @@
         </is>
       </c>
       <c r="G781" t="n">
-        <v>8208</v>
+        <v>8458</v>
       </c>
       <c r="H781" t="n">
         <v>1</v>
       </c>
       <c r="I781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J781" t="n">
         <v>4</v>
       </c>
       <c r="K781" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L781" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M781" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N781" t="n">
-        <v>6.1</v>
+        <v>5.48</v>
       </c>
       <c r="O781" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P781" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q781" t="n">
         <v>1</v>
       </c>
       <c r="R781" t="inlineStr"/>
       <c r="S781" t="n">
-        <v>48.3764489</v>
+        <v>46.3205213</v>
       </c>
       <c r="T781" t="n">
-        <v>-89.29077679999999</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C782" t="n">
-        <v>71068</v>
-      </c>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>Sault Ste. Marie</t>
-        </is>
-      </c>
-      <c r="E782" t="inlineStr">
-        <is>
-          <t>Wm. Merrifield School</t>
-        </is>
-      </c>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G782" t="n">
-        <v>4076</v>
-      </c>
-      <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>2</v>
-      </c>
-      <c r="J782" t="n">
-        <v>5</v>
-      </c>
-      <c r="K782" t="n">
-        <v>9</v>
-      </c>
-      <c r="L782" t="n">
-        <v>21</v>
-      </c>
-      <c r="M782" t="n">
-        <v>39</v>
-      </c>
-      <c r="N782" t="inlineStr">
-        <is>
-          <t>INS</t>
-        </is>
-      </c>
-      <c r="O782" t="n">
-        <v>65</v>
-      </c>
-      <c r="P782" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q782" t="n">
-        <v>4</v>
-      </c>
-      <c r="R782" t="inlineStr"/>
-      <c r="S782" t="n">
-        <v>46.5136494</v>
-      </c>
-      <c r="T782" t="n">
-        <v>-84.33575259999999</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C783" t="n">
-        <v>75010</v>
-      </c>
-      <c r="D783" t="inlineStr">
-        <is>
-          <t>North Bay</t>
-        </is>
-      </c>
-      <c r="E783" t="inlineStr">
-        <is>
-          <t>Chippewa St. W., Dept. National Defence</t>
-        </is>
-      </c>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G783" t="n">
-        <v>8458</v>
-      </c>
-      <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>2</v>
-      </c>
-      <c r="J783" t="n">
-        <v>4</v>
-      </c>
-      <c r="K783" t="n">
-        <v>6</v>
-      </c>
-      <c r="L783" t="n">
-        <v>12</v>
-      </c>
-      <c r="M783" t="n">
-        <v>26</v>
-      </c>
-      <c r="N783" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="O783" t="n">
-        <v>51</v>
-      </c>
-      <c r="P783" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q783" t="n">
-        <v>1</v>
-      </c>
-      <c r="R783" t="inlineStr"/>
-      <c r="S783" t="n">
-        <v>46.3205213</v>
-      </c>
-      <c r="T783" t="n">
         <v>-79.44973349999999</v>
       </c>
     </row>
